--- a/data/annotations/orphan_invivo_essentials_TierII.xlsx
+++ b/data/annotations/orphan_invivo_essentials_TierII.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajinich/Documents/git_repos/mtb_tn_db/data/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7517F991-C737-0445-A407-68F953A18F06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E780B2B-5472-5241-A988-EAF70079189C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>Rv_ID</t>
   </si>
@@ -260,6 +260,21 @@
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>umap_v1_NN</t>
+  </si>
+  <si>
+    <t>umap_v2_NN</t>
+  </si>
+  <si>
+    <t>umap_v3_NN</t>
+  </si>
+  <si>
+    <t>umap_v4_NN</t>
+  </si>
+  <si>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
@@ -309,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -332,19 +347,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -699,11 +729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -712,16 +742,18 @@
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.1640625" customWidth="1"/>
     <col min="14" max="14" width="37.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +763,7 @@
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -764,96 +796,114 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="O1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>43</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -866,7 +916,7 @@
       <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="12">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="b">
@@ -878,7 +928,7 @@
       <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="12">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="b">
@@ -896,8 +946,11 @@
       <c r="N4" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -910,7 +963,7 @@
       <c r="D5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="b">
@@ -922,7 +975,7 @@
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="12">
         <v>1</v>
       </c>
       <c r="J5" s="2" t="b">
@@ -940,8 +993,11 @@
       <c r="N5" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -954,7 +1010,7 @@
       <c r="D6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="b">
@@ -966,7 +1022,7 @@
       <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="b">
@@ -984,8 +1040,11 @@
       <c r="N6" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -998,7 +1057,7 @@
       <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="12">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="b">
@@ -1010,7 +1069,7 @@
       <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="2" t="b">
@@ -1028,9 +1087,12 @@
       <c r="N7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="O7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
@@ -1042,7 +1104,7 @@
       <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="b">
@@ -1054,7 +1116,7 @@
       <c r="H8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="12">
         <v>2</v>
       </c>
       <c r="J8" s="2" t="b">
@@ -1072,52 +1134,58 @@
       <c r="N8" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="O8" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>74</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
         <v>2</v>
       </c>
-      <c r="J9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1195,7 @@
       <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>1</v>
       </c>
       <c r="F10" t="b">
@@ -1139,7 +1207,7 @@
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="13">
         <v>2</v>
       </c>
       <c r="J10" t="b">
@@ -1157,8 +1225,11 @@
       <c r="N10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1168,7 +1239,7 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
       <c r="F11" t="b">
@@ -1180,7 +1251,7 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="13">
         <v>2</v>
       </c>
       <c r="J11" t="b">
@@ -1198,8 +1269,11 @@
       <c r="N11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1283,7 @@
       <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="13">
         <v>1</v>
       </c>
       <c r="F12" t="b">
@@ -1221,7 +1295,7 @@
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="13">
         <v>1</v>
       </c>
       <c r="J12" t="b">
@@ -1239,8 +1313,11 @@
       <c r="N12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1327,7 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="13">
         <v>3</v>
       </c>
       <c r="F13" t="b">
@@ -1262,7 +1339,7 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="13">
         <v>1</v>
       </c>
       <c r="J13" t="b">
@@ -1280,8 +1357,11 @@
       <c r="N13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1371,7 @@
       <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="13">
         <v>1</v>
       </c>
       <c r="F14" t="b">
@@ -1303,7 +1383,7 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="13">
         <v>1</v>
       </c>
       <c r="J14" t="b">
@@ -1321,8 +1401,11 @@
       <c r="N14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1415,7 @@
       <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="13">
         <v>3</v>
       </c>
       <c r="F15" t="b">
@@ -1344,7 +1427,7 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="13">
         <v>1</v>
       </c>
       <c r="J15" t="b">
@@ -1362,8 +1445,11 @@
       <c r="N15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1373,7 +1459,7 @@
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="13">
         <v>1</v>
       </c>
       <c r="F16" t="b">
@@ -1385,7 +1471,7 @@
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="13">
         <v>1</v>
       </c>
       <c r="J16" t="b">
@@ -1402,6 +1488,9 @@
       </c>
       <c r="N16" t="s">
         <v>70</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
